--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Fiduccia-Mattheyses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1CE8A8-C3F8-40DA-8CD0-8FFE3C0AB266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9085F4-9460-47F1-B7BE-91D84A92D259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2928" yWindow="1536" windowWidth="16236" windowHeight="9468" xr2:uid="{1C098922-473B-4F55-9C65-645796CBE983}"/>
+    <workbookView xWindow="1284" yWindow="-108" windowWidth="21864" windowHeight="13176" xr2:uid="{1C098922-473B-4F55-9C65-645796CBE983}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>modified</t>
   </si>
@@ -311,78 +311,75 @@
                   <c:v>14112</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14112</c:v>
+                  <c:v>19585</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19585</c:v>
+                  <c:v>27402</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27402</c:v>
+                  <c:v>31971</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31971</c:v>
+                  <c:v>28447</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28447</c:v>
+                  <c:v>34827</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34827</c:v>
+                  <c:v>48118</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48118</c:v>
+                  <c:v>50514</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50514</c:v>
+                  <c:v>60903</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>60903</c:v>
+                  <c:v>75197</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75197</c:v>
+                  <c:v>81455</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>81455</c:v>
+                  <c:v>77241</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>77241</c:v>
+                  <c:v>99667</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>99667</c:v>
+                  <c:v>152773</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>152773</c:v>
+                  <c:v>186609</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>186609</c:v>
+                  <c:v>190049</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>190049</c:v>
+                  <c:v>189582</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>189582</c:v>
+                  <c:v>201921</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>201921</c:v>
+                  <c:v>99185</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>99185</c:v>
+                  <c:v>97313</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>97313</c:v>
+                  <c:v>99581</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>99581</c:v>
+                  <c:v>144362</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>144362</c:v>
+                  <c:v>144227</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>144227</c:v>
+                  <c:v>140969</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>140969</c:v>
-                </c:pt>
-                <c:pt idx="25">
                   <c:v>245441</c:v>
                 </c:pt>
               </c:numCache>
@@ -395,82 +392,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>150</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>664</c:v>
+                  <c:v>461</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>715</c:v>
+                  <c:v>416</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>507</c:v>
+                  <c:v>980</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1347</c:v>
+                  <c:v>1331</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1133</c:v>
+                  <c:v>1055</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>889</c:v>
+                  <c:v>2061</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1493</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2124</c:v>
+                  <c:v>1979</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1576</c:v>
+                  <c:v>2141</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2125</c:v>
+                  <c:v>2712</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2301</c:v>
+                  <c:v>1788</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4645</c:v>
+                  <c:v>4925</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4565</c:v>
+                  <c:v>4618</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6175</c:v>
+                  <c:v>4989</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5763</c:v>
+                  <c:v>9086</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7287</c:v>
+                  <c:v>14252</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20305</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>333</c:v>
+                  <c:v>593</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>612</c:v>
+                  <c:v>1298</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>444</c:v>
+                  <c:v>657</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1926</c:v>
+                  <c:v>1201</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>862</c:v>
+                  <c:v>1101</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>920</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1961</c:v>
+                  <c:v>2204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -601,79 +595,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>769</c:v>
+                  <c:v>576</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1208</c:v>
+                  <c:v>1012</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2937</c:v>
+                  <c:v>2331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2499</c:v>
+                  <c:v>2174</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5122</c:v>
+                  <c:v>4194</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8925</c:v>
+                  <c:v>6975</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9529</c:v>
+                  <c:v>8580</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4993</c:v>
+                  <c:v>4816</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8084</c:v>
+                  <c:v>7949</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9545</c:v>
+                  <c:v>7047</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20560</c:v>
+                  <c:v>13397</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25590</c:v>
+                  <c:v>17386</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14258</c:v>
+                  <c:v>13993</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36178</c:v>
+                  <c:v>33196</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28835</c:v>
+                  <c:v>26719</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>86307</c:v>
+                  <c:v>90204</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42771</c:v>
+                  <c:v>46901</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>75389</c:v>
+                  <c:v>79104</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1743</c:v>
+                  <c:v>1824</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2077</c:v>
+                  <c:v>2073</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1831</c:v>
+                  <c:v>1760</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3513</c:v>
+                  <c:v>3665</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3034</c:v>
+                  <c:v>3259</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3781</c:v>
+                  <c:v>3888</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9844</c:v>
+                  <c:v>10155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1132,78 +1126,75 @@
                   <c:v>12753</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12753</c:v>
+                  <c:v>19602</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19602</c:v>
+                  <c:v>23137</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23137</c:v>
+                  <c:v>27508</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27508</c:v>
+                  <c:v>29348</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29348</c:v>
+                  <c:v>32499</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32499</c:v>
+                  <c:v>45927</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45927</c:v>
+                  <c:v>51310</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51310</c:v>
+                  <c:v>53396</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>53396</c:v>
+                  <c:v>69430</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>69430</c:v>
+                  <c:v>70559</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>70559</c:v>
+                  <c:v>71077</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>71077</c:v>
+                  <c:v>84200</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>84200</c:v>
+                  <c:v>147606</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>147606</c:v>
+                  <c:v>161571</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>161571</c:v>
+                  <c:v>183485</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>183485</c:v>
+                  <c:v>185496</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>185496</c:v>
+                  <c:v>210614</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>210614</c:v>
+                  <c:v>67801</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>67801</c:v>
+                  <c:v>66553</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>66553</c:v>
+                  <c:v>68067</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>68067</c:v>
+                  <c:v>98655</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>98655</c:v>
+                  <c:v>98565</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>98565</c:v>
+                  <c:v>96431</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>96431</c:v>
-                </c:pt>
-                <c:pt idx="25">
                   <c:v>171293</c:v>
                 </c:pt>
               </c:numCache>
@@ -1216,82 +1207,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>150</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>664</c:v>
+                  <c:v>461</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>715</c:v>
+                  <c:v>416</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>507</c:v>
+                  <c:v>980</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1347</c:v>
+                  <c:v>1331</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1133</c:v>
+                  <c:v>1055</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>889</c:v>
+                  <c:v>2061</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1493</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2124</c:v>
+                  <c:v>1979</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1576</c:v>
+                  <c:v>2141</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2125</c:v>
+                  <c:v>2712</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2301</c:v>
+                  <c:v>1788</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4645</c:v>
+                  <c:v>4925</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4565</c:v>
+                  <c:v>4618</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6175</c:v>
+                  <c:v>4989</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5763</c:v>
+                  <c:v>9086</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7287</c:v>
+                  <c:v>14252</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20305</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>333</c:v>
+                  <c:v>593</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>612</c:v>
+                  <c:v>1298</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>444</c:v>
+                  <c:v>657</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1926</c:v>
+                  <c:v>1201</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>862</c:v>
+                  <c:v>1101</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>920</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1961</c:v>
+                  <c:v>2204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1422,79 +1410,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>769</c:v>
+                  <c:v>576</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1208</c:v>
+                  <c:v>1012</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2937</c:v>
+                  <c:v>2331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2499</c:v>
+                  <c:v>2174</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5122</c:v>
+                  <c:v>4194</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8925</c:v>
+                  <c:v>6975</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9529</c:v>
+                  <c:v>8580</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4993</c:v>
+                  <c:v>4816</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8084</c:v>
+                  <c:v>7949</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9545</c:v>
+                  <c:v>7047</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20560</c:v>
+                  <c:v>13397</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25590</c:v>
+                  <c:v>17386</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14258</c:v>
+                  <c:v>13993</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36178</c:v>
+                  <c:v>33196</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28835</c:v>
+                  <c:v>26719</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>86307</c:v>
+                  <c:v>90204</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42771</c:v>
+                  <c:v>46901</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>75389</c:v>
+                  <c:v>79104</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1743</c:v>
+                  <c:v>1824</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2077</c:v>
+                  <c:v>2073</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1831</c:v>
+                  <c:v>1760</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3513</c:v>
+                  <c:v>3665</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3034</c:v>
+                  <c:v>3259</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3781</c:v>
+                  <c:v>3888</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9844</c:v>
+                  <c:v>10155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1947,83 +1935,80 @@
             <c:strRef>
               <c:f>Лист1!$A$2:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="26"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>ISPD98_ibm01.hgr</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ISPD98_ibm01.hgr</c:v>
+                  <c:v>ISPD98_ibm02.hgr</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>ISPD98_ibm02.hgr</c:v>
+                  <c:v>ISPD98_ibm03.hgr</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>ISPD98_ibm03.hgr</c:v>
+                  <c:v>ISPD98_ibm04.hgr</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>ISPD98_ibm04.hgr</c:v>
+                  <c:v>ISPD98_ibm05.hgr</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>ISPD98_ibm05.hgr</c:v>
+                  <c:v>ISPD98_ibm06.hgr</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>ISPD98_ibm06.hgr</c:v>
+                  <c:v>ISPD98_ibm07.hgr</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>ISPD98_ibm07.hgr</c:v>
+                  <c:v>ISPD98_ibm08.hgr</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>ISPD98_ibm08.hgr</c:v>
+                  <c:v>ISPD98_ibm09.hgr</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>ISPD98_ibm09.hgr</c:v>
+                  <c:v>ISPD98_ibm10.hgr</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>ISPD98_ibm10.hgr</c:v>
+                  <c:v>ISPD98_ibm11.hgr</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>ISPD98_ibm11.hgr</c:v>
+                  <c:v>ISPD98_ibm12.hgr</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>ISPD98_ibm12.hgr</c:v>
+                  <c:v>ISPD98_ibm13.hgr</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>ISPD98_ibm13.hgr</c:v>
+                  <c:v>ISPD98_ibm14.hgr</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>ISPD98_ibm14.hgr</c:v>
+                  <c:v>ISPD98_ibm15.hgr</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>ISPD98_ibm15.hgr</c:v>
+                  <c:v>ISPD98_ibm16.hgr</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>ISPD98_ibm16.hgr</c:v>
+                  <c:v>ISPD98_ibm17.hgr</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>ISPD98_ibm17.hgr</c:v>
+                  <c:v>ISPD98_ibm18.hgr</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>ISPD98_ibm18.hgr</c:v>
+                  <c:v>sat14_6s10.cnf.hgr</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>sat14_6s10.cnf.hgr</c:v>
+                  <c:v>sat14_6s11-opt.cnf.hgr</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>sat14_6s11-opt.cnf.hgr</c:v>
+                  <c:v>sat14_6s12.cnf.hgr</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>sat14_6s12.cnf.hgr</c:v>
+                  <c:v>sat14_6s130-opt.cnf.hgr</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>sat14_6s130-opt.cnf.hgr</c:v>
+                  <c:v>sat14_6s131-opt.cnf.hgr</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>sat14_6s131-opt.cnf.hgr</c:v>
+                  <c:v>sat14_6s133.cnf.hgr</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>sat14_6s133.cnf.hgr</c:v>
-                </c:pt>
-                <c:pt idx="25">
                   <c:v>sat14_6s153.cnf.hgr</c:v>
                 </c:pt>
               </c:strCache>
@@ -2036,82 +2021,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>688</c:v>
+                  <c:v>729</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>688</c:v>
+                  <c:v>999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1056</c:v>
+                  <c:v>1635</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3581</c:v>
+                  <c:v>1097</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1945</c:v>
+                  <c:v>3485</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2962</c:v>
+                  <c:v>1952</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1838</c:v>
+                  <c:v>3461</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4391</c:v>
+                  <c:v>2984</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3988</c:v>
+                  <c:v>3049</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2268</c:v>
+                  <c:v>3173</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2754</c:v>
+                  <c:v>6912</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6746</c:v>
+                  <c:v>4217</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3833</c:v>
+                  <c:v>4887</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2708</c:v>
+                  <c:v>8704</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11304</c:v>
+                  <c:v>8739</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6530</c:v>
+                  <c:v>5246</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5002</c:v>
+                  <c:v>11203</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6990</c:v>
+                  <c:v>4117</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9226</c:v>
+                  <c:v>4511</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4541</c:v>
+                  <c:v>3839</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3842</c:v>
+                  <c:v>3050</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4656</c:v>
+                  <c:v>4048</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2550</c:v>
+                  <c:v>2699</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3488</c:v>
+                  <c:v>3141</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3894</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1775</c:v>
+                  <c:v>1617</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2765,83 +2747,80 @@
             <c:strRef>
               <c:f>Лист1!$A$2:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="26"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>ISPD98_ibm01.hgr</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ISPD98_ibm01.hgr</c:v>
+                  <c:v>ISPD98_ibm02.hgr</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>ISPD98_ibm02.hgr</c:v>
+                  <c:v>ISPD98_ibm03.hgr</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>ISPD98_ibm03.hgr</c:v>
+                  <c:v>ISPD98_ibm04.hgr</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>ISPD98_ibm04.hgr</c:v>
+                  <c:v>ISPD98_ibm05.hgr</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>ISPD98_ibm05.hgr</c:v>
+                  <c:v>ISPD98_ibm06.hgr</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>ISPD98_ibm06.hgr</c:v>
+                  <c:v>ISPD98_ibm07.hgr</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>ISPD98_ibm07.hgr</c:v>
+                  <c:v>ISPD98_ibm08.hgr</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>ISPD98_ibm08.hgr</c:v>
+                  <c:v>ISPD98_ibm09.hgr</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>ISPD98_ibm09.hgr</c:v>
+                  <c:v>ISPD98_ibm10.hgr</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>ISPD98_ibm10.hgr</c:v>
+                  <c:v>ISPD98_ibm11.hgr</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>ISPD98_ibm11.hgr</c:v>
+                  <c:v>ISPD98_ibm12.hgr</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>ISPD98_ibm12.hgr</c:v>
+                  <c:v>ISPD98_ibm13.hgr</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>ISPD98_ibm13.hgr</c:v>
+                  <c:v>ISPD98_ibm14.hgr</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>ISPD98_ibm14.hgr</c:v>
+                  <c:v>ISPD98_ibm15.hgr</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>ISPD98_ibm15.hgr</c:v>
+                  <c:v>ISPD98_ibm16.hgr</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>ISPD98_ibm16.hgr</c:v>
+                  <c:v>ISPD98_ibm17.hgr</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>ISPD98_ibm17.hgr</c:v>
+                  <c:v>ISPD98_ibm18.hgr</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>ISPD98_ibm18.hgr</c:v>
+                  <c:v>sat14_6s10.cnf.hgr</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>sat14_6s10.cnf.hgr</c:v>
+                  <c:v>sat14_6s11-opt.cnf.hgr</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>sat14_6s11-opt.cnf.hgr</c:v>
+                  <c:v>sat14_6s12.cnf.hgr</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>sat14_6s12.cnf.hgr</c:v>
+                  <c:v>sat14_6s130-opt.cnf.hgr</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>sat14_6s130-opt.cnf.hgr</c:v>
+                  <c:v>sat14_6s131-opt.cnf.hgr</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>sat14_6s131-opt.cnf.hgr</c:v>
+                  <c:v>sat14_6s133.cnf.hgr</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>sat14_6s133.cnf.hgr</c:v>
-                </c:pt>
-                <c:pt idx="25">
                   <c:v>sat14_6s153.cnf.hgr</c:v>
                 </c:pt>
               </c:strCache>
@@ -2854,82 +2833,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>150</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>664</c:v>
+                  <c:v>461</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>715</c:v>
+                  <c:v>416</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>507</c:v>
+                  <c:v>980</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1347</c:v>
+                  <c:v>1331</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1133</c:v>
+                  <c:v>1055</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>889</c:v>
+                  <c:v>2061</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1493</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2124</c:v>
+                  <c:v>1979</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1576</c:v>
+                  <c:v>2141</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2125</c:v>
+                  <c:v>2712</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2301</c:v>
+                  <c:v>1788</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4645</c:v>
+                  <c:v>4925</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4565</c:v>
+                  <c:v>4618</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6175</c:v>
+                  <c:v>4989</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5763</c:v>
+                  <c:v>9086</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7287</c:v>
+                  <c:v>14252</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20305</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>333</c:v>
+                  <c:v>593</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>612</c:v>
+                  <c:v>1298</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>444</c:v>
+                  <c:v>657</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1926</c:v>
+                  <c:v>1201</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>862</c:v>
+                  <c:v>1101</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>920</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1961</c:v>
+                  <c:v>2204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3059,79 +3035,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>769</c:v>
+                  <c:v>576</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1208</c:v>
+                  <c:v>1012</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2937</c:v>
+                  <c:v>2331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2499</c:v>
+                  <c:v>2174</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5122</c:v>
+                  <c:v>4194</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8925</c:v>
+                  <c:v>6975</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9529</c:v>
+                  <c:v>8580</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4993</c:v>
+                  <c:v>4816</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8084</c:v>
+                  <c:v>7949</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9545</c:v>
+                  <c:v>7047</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20560</c:v>
+                  <c:v>13397</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25590</c:v>
+                  <c:v>17386</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14258</c:v>
+                  <c:v>13993</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36178</c:v>
+                  <c:v>33196</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28835</c:v>
+                  <c:v>26719</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>86307</c:v>
+                  <c:v>90204</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42771</c:v>
+                  <c:v>46901</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>75389</c:v>
+                  <c:v>79104</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1743</c:v>
+                  <c:v>1824</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2077</c:v>
+                  <c:v>2073</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1831</c:v>
+                  <c:v>1760</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3513</c:v>
+                  <c:v>3665</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3034</c:v>
+                  <c:v>3259</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3781</c:v>
+                  <c:v>3888</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9844</c:v>
+                  <c:v>10155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3585,83 +3561,80 @@
             <c:strRef>
               <c:f>Лист1!$A$2:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="26"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>ISPD98_ibm01.hgr</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ISPD98_ibm01.hgr</c:v>
+                  <c:v>ISPD98_ibm02.hgr</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>ISPD98_ibm02.hgr</c:v>
+                  <c:v>ISPD98_ibm03.hgr</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>ISPD98_ibm03.hgr</c:v>
+                  <c:v>ISPD98_ibm04.hgr</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>ISPD98_ibm04.hgr</c:v>
+                  <c:v>ISPD98_ibm05.hgr</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>ISPD98_ibm05.hgr</c:v>
+                  <c:v>ISPD98_ibm06.hgr</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>ISPD98_ibm06.hgr</c:v>
+                  <c:v>ISPD98_ibm07.hgr</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>ISPD98_ibm07.hgr</c:v>
+                  <c:v>ISPD98_ibm08.hgr</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>ISPD98_ibm08.hgr</c:v>
+                  <c:v>ISPD98_ibm09.hgr</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>ISPD98_ibm09.hgr</c:v>
+                  <c:v>ISPD98_ibm10.hgr</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>ISPD98_ibm10.hgr</c:v>
+                  <c:v>ISPD98_ibm11.hgr</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>ISPD98_ibm11.hgr</c:v>
+                  <c:v>ISPD98_ibm12.hgr</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>ISPD98_ibm12.hgr</c:v>
+                  <c:v>ISPD98_ibm13.hgr</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>ISPD98_ibm13.hgr</c:v>
+                  <c:v>ISPD98_ibm14.hgr</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>ISPD98_ibm14.hgr</c:v>
+                  <c:v>ISPD98_ibm15.hgr</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>ISPD98_ibm15.hgr</c:v>
+                  <c:v>ISPD98_ibm16.hgr</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>ISPD98_ibm16.hgr</c:v>
+                  <c:v>ISPD98_ibm17.hgr</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>ISPD98_ibm17.hgr</c:v>
+                  <c:v>ISPD98_ibm18.hgr</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>ISPD98_ibm18.hgr</c:v>
+                  <c:v>sat14_6s10.cnf.hgr</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>sat14_6s10.cnf.hgr</c:v>
+                  <c:v>sat14_6s11-opt.cnf.hgr</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>sat14_6s11-opt.cnf.hgr</c:v>
+                  <c:v>sat14_6s12.cnf.hgr</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>sat14_6s12.cnf.hgr</c:v>
+                  <c:v>sat14_6s130-opt.cnf.hgr</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>sat14_6s130-opt.cnf.hgr</c:v>
+                  <c:v>sat14_6s131-opt.cnf.hgr</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>sat14_6s131-opt.cnf.hgr</c:v>
+                  <c:v>sat14_6s133.cnf.hgr</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>sat14_6s133.cnf.hgr</c:v>
-                </c:pt>
-                <c:pt idx="25">
                   <c:v>sat14_6s153.cnf.hgr</c:v>
                 </c:pt>
               </c:strCache>
@@ -3674,82 +3647,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>36</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>17</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7560,12 +7530,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFBA85C5-01E7-459F-B849-49741913BFE1}">
   <dimension ref="A1:AB56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:F55"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="27.77734375" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7606,13 +7577,13 @@
         <v>12753</v>
       </c>
       <c r="D2">
-        <v>688</v>
+        <v>729</v>
       </c>
       <c r="E2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <f>B2/C2</f>
@@ -7625,506 +7596,506 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>14112</v>
+        <v>19585</v>
       </c>
       <c r="C3">
-        <v>12753</v>
+        <v>19602</v>
       </c>
       <c r="D3">
-        <v>688</v>
+        <v>999</v>
       </c>
       <c r="E3">
-        <v>150</v>
+        <v>316</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G48" si="0">B3/C3</f>
-        <v>1.1065631616090332</v>
+        <v>0.99913274155698395</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H48" si="1">B3*C3</f>
-        <v>179970336</v>
+        <v>383905170</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>19585</v>
+        <v>27402</v>
       </c>
       <c r="C4">
-        <v>19602</v>
+        <v>23137</v>
       </c>
       <c r="D4">
-        <v>1056</v>
+        <v>1635</v>
       </c>
       <c r="E4">
-        <v>664</v>
+        <v>461</v>
       </c>
       <c r="F4">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0.99913274155698395</v>
+        <v>1.1843367765916064</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>383905170</v>
+        <v>634000074</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>27402</v>
+        <v>31971</v>
       </c>
       <c r="C5">
-        <v>23137</v>
+        <v>27508</v>
       </c>
       <c r="D5">
-        <v>3581</v>
+        <v>1097</v>
       </c>
       <c r="E5">
-        <v>715</v>
+        <v>416</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>1.1843367765916064</v>
+        <v>1.1622437109204595</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>634000074</v>
+        <v>879458268</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>31971</v>
+        <v>28447</v>
       </c>
       <c r="C6">
-        <v>27508</v>
+        <v>29348</v>
       </c>
       <c r="D6">
-        <v>1945</v>
+        <v>3485</v>
       </c>
       <c r="E6">
-        <v>507</v>
+        <v>980</v>
       </c>
       <c r="F6">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>1.1622437109204595</v>
+        <v>0.96929944118849665</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>879458268</v>
+        <v>834862556</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>28447</v>
+        <v>34827</v>
       </c>
       <c r="C7">
-        <v>29348</v>
+        <v>32499</v>
       </c>
       <c r="D7">
-        <v>2962</v>
+        <v>1952</v>
       </c>
       <c r="E7">
-        <v>1347</v>
+        <v>1331</v>
       </c>
       <c r="F7">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0.96929944118849665</v>
+        <v>1.071632973322256</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>834862556</v>
+        <v>1131842673</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>34827</v>
+        <v>48118</v>
       </c>
       <c r="C8">
-        <v>32499</v>
+        <v>45927</v>
       </c>
       <c r="D8">
-        <v>1838</v>
+        <v>3461</v>
       </c>
       <c r="E8">
-        <v>1133</v>
+        <v>1055</v>
       </c>
       <c r="F8">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>1.071632973322256</v>
+        <v>1.0477061423563481</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>1131842673</v>
+        <v>2209915386</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>48118</v>
+        <v>50514</v>
       </c>
       <c r="C9">
-        <v>45927</v>
+        <v>51310</v>
       </c>
       <c r="D9">
-        <v>4391</v>
+        <v>2984</v>
       </c>
       <c r="E9">
-        <v>889</v>
+        <v>2061</v>
       </c>
       <c r="F9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>1.0477061423563481</v>
+        <v>0.9844864548820893</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>2209915386</v>
+        <v>2591873340</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>50514</v>
+        <v>60903</v>
       </c>
       <c r="C10">
-        <v>51310</v>
+        <v>53396</v>
       </c>
       <c r="D10">
-        <v>3988</v>
+        <v>3049</v>
       </c>
       <c r="E10">
-        <v>1493</v>
+        <v>1800</v>
       </c>
       <c r="F10">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0.9844864548820893</v>
+        <v>1.140591055509776</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>2591873340</v>
+        <v>3251976588</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>75197</v>
+      </c>
+      <c r="C11">
+        <v>69430</v>
+      </c>
+      <c r="D11">
+        <v>3173</v>
+      </c>
+      <c r="E11">
+        <v>1979</v>
+      </c>
+      <c r="F11">
         <v>17</v>
-      </c>
-      <c r="B11">
-        <v>60903</v>
-      </c>
-      <c r="C11">
-        <v>53396</v>
-      </c>
-      <c r="D11">
-        <v>2268</v>
-      </c>
-      <c r="E11">
-        <v>2124</v>
-      </c>
-      <c r="F11">
-        <v>19</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>1.140591055509776</v>
+        <v>1.0830620769119976</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>3251976588</v>
+        <v>5220927710</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>75197</v>
+        <v>81455</v>
       </c>
       <c r="C12">
-        <v>69430</v>
+        <v>70559</v>
       </c>
       <c r="D12">
-        <v>2754</v>
+        <v>6912</v>
       </c>
       <c r="E12">
-        <v>1576</v>
+        <v>2141</v>
       </c>
       <c r="F12">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>1.0830620769119976</v>
+        <v>1.1544239572556301</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>5220927710</v>
+        <v>5747383345</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>81455</v>
+        <v>77241</v>
       </c>
       <c r="C13">
-        <v>70559</v>
+        <v>71077</v>
       </c>
       <c r="D13">
-        <v>6746</v>
+        <v>4217</v>
       </c>
       <c r="E13">
-        <v>2125</v>
+        <v>2712</v>
       </c>
       <c r="F13">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>1.1544239572556301</v>
+        <v>1.0867228498670456</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>5747383345</v>
+        <v>5490058557</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>77241</v>
+        <v>99667</v>
       </c>
       <c r="C14">
-        <v>71077</v>
+        <v>84200</v>
       </c>
       <c r="D14">
-        <v>3833</v>
+        <v>4887</v>
       </c>
       <c r="E14">
-        <v>2301</v>
+        <v>1788</v>
       </c>
       <c r="F14">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>1.0867228498670456</v>
+        <v>1.1836935866983374</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>5490058557</v>
+        <v>8391961400</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>99667</v>
+        <v>152773</v>
       </c>
       <c r="C15">
-        <v>84200</v>
+        <v>147606</v>
       </c>
       <c r="D15">
-        <v>2708</v>
+        <v>8704</v>
       </c>
       <c r="E15">
-        <v>4645</v>
+        <v>4925</v>
       </c>
       <c r="F15">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>1.1836935866983374</v>
+        <v>1.0350053520859586</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>8391961400</v>
+        <v>22550211438</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>152773</v>
+        <v>186609</v>
       </c>
       <c r="C16">
-        <v>147606</v>
+        <v>161571</v>
       </c>
       <c r="D16">
-        <v>11304</v>
+        <v>8739</v>
       </c>
       <c r="E16">
-        <v>4565</v>
+        <v>4618</v>
       </c>
       <c r="F16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>1.0350053520859586</v>
+        <v>1.154965928291587</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>22550211438</v>
+        <v>30150602739</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17">
-        <v>186609</v>
+        <v>190049</v>
       </c>
       <c r="C17">
-        <v>161571</v>
+        <v>183485</v>
       </c>
       <c r="D17">
-        <v>6530</v>
+        <v>5246</v>
       </c>
       <c r="E17">
-        <v>6175</v>
+        <v>4989</v>
       </c>
       <c r="F17">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>1.154965928291587</v>
+        <v>1.03577404147478</v>
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>30150602739</v>
+        <v>34871140765</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18">
-        <v>190049</v>
+        <v>189582</v>
       </c>
       <c r="C18">
-        <v>183485</v>
+        <v>185496</v>
       </c>
       <c r="D18">
-        <v>5002</v>
+        <v>11203</v>
       </c>
       <c r="E18">
-        <v>5763</v>
+        <v>9086</v>
       </c>
       <c r="F18">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>1.03577404147478</v>
+        <v>1.022027429162893</v>
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
-        <v>34871140765</v>
+        <v>35166702672</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>189582</v>
+        <v>201921</v>
       </c>
       <c r="C19">
-        <v>185496</v>
+        <v>210614</v>
       </c>
       <c r="D19">
-        <v>6990</v>
+        <v>4117</v>
       </c>
       <c r="E19">
-        <v>7287</v>
+        <v>14252</v>
       </c>
       <c r="F19">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>1.022027429162893</v>
+        <v>0.95872544085388434</v>
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
-        <v>35166702672</v>
+        <v>42527389494</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>201921</v>
+        <v>99185</v>
       </c>
       <c r="C20">
-        <v>210614</v>
+        <v>67801</v>
       </c>
       <c r="D20">
-        <v>9226</v>
+        <v>4511</v>
       </c>
       <c r="E20">
-        <v>20305</v>
+        <v>410</v>
       </c>
       <c r="F20">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>0.95872544085388434</v>
+        <v>1.4628840282591702</v>
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
-        <v>42527389494</v>
+        <v>6724842185</v>
       </c>
       <c r="AB20" t="s">
         <v>35</v>
@@ -8132,197 +8103,169 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>99185</v>
+        <v>97313</v>
       </c>
       <c r="C21">
-        <v>67801</v>
+        <v>66553</v>
       </c>
       <c r="D21">
-        <v>4541</v>
+        <v>3839</v>
       </c>
       <c r="E21">
-        <v>333</v>
+        <v>593</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G21">
-        <f>B21/C21</f>
-        <v>1.4628840282591702</v>
+        <f t="shared" ref="G21:G28" si="2">B21/C21</f>
+        <v>1.4621880305921597</v>
       </c>
       <c r="H21">
-        <f>B21*C21</f>
-        <v>6724842185</v>
+        <f t="shared" ref="H21:H28" si="3">B21*C21</f>
+        <v>6476472089</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>97313</v>
+        <v>99581</v>
       </c>
       <c r="C22">
-        <v>66553</v>
+        <v>68067</v>
       </c>
       <c r="D22">
-        <v>3842</v>
+        <v>3050</v>
       </c>
       <c r="E22">
-        <v>612</v>
+        <v>1298</v>
       </c>
       <c r="F22">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G22">
-        <f>B22/C22</f>
-        <v>1.4621880305921597</v>
+        <f t="shared" si="2"/>
+        <v>1.462985000073457</v>
       </c>
       <c r="H22">
-        <f>B22*C22</f>
-        <v>6476472089</v>
+        <f t="shared" si="3"/>
+        <v>6778179927</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>99581</v>
+        <v>144362</v>
       </c>
       <c r="C23">
-        <v>68067</v>
+        <v>98655</v>
       </c>
       <c r="D23">
-        <v>4656</v>
+        <v>4048</v>
       </c>
       <c r="E23">
-        <v>444</v>
+        <v>657</v>
       </c>
       <c r="F23">
         <v>7</v>
       </c>
       <c r="G23">
-        <f>B23/C23</f>
-        <v>1.462985000073457</v>
+        <f t="shared" si="2"/>
+        <v>1.4633014038822159</v>
       </c>
       <c r="H23">
-        <f>B23*C23</f>
-        <v>6778179927</v>
+        <f t="shared" si="3"/>
+        <v>14242033110</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>144362</v>
+        <v>144227</v>
       </c>
       <c r="C24">
-        <v>98655</v>
+        <v>98565</v>
       </c>
       <c r="D24">
-        <v>2550</v>
+        <v>2699</v>
       </c>
       <c r="E24">
-        <v>1926</v>
+        <v>1201</v>
       </c>
       <c r="F24">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G24">
-        <f>B24/C24</f>
-        <v>1.4633014038822159</v>
+        <f t="shared" si="2"/>
+        <v>1.4632678942829604</v>
       </c>
       <c r="H24">
-        <f>B24*C24</f>
-        <v>14242033110</v>
+        <f t="shared" si="3"/>
+        <v>14215734255</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>144227</v>
+        <v>140969</v>
       </c>
       <c r="C25">
-        <v>98565</v>
+        <v>96431</v>
       </c>
       <c r="D25">
-        <v>3488</v>
+        <v>3141</v>
       </c>
       <c r="E25">
-        <v>862</v>
+        <v>1101</v>
       </c>
       <c r="F25">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G25">
-        <f>B25/C25</f>
-        <v>1.4632678942829604</v>
+        <f t="shared" si="2"/>
+        <v>1.4618639234271138</v>
       </c>
       <c r="H25">
-        <f>B25*C25</f>
-        <v>14215734255</v>
+        <f t="shared" si="3"/>
+        <v>13593781639</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>140969</v>
+        <v>245441</v>
       </c>
       <c r="C26">
-        <v>96431</v>
+        <v>171293</v>
       </c>
       <c r="D26">
-        <v>3894</v>
+        <v>1617</v>
       </c>
       <c r="E26">
-        <v>920</v>
+        <v>2204</v>
       </c>
       <c r="F26">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G26">
-        <f>B26/C26</f>
-        <v>1.4618639234271138</v>
+        <f t="shared" si="2"/>
+        <v>1.432872329867537</v>
       </c>
       <c r="H26">
-        <f>B26*C26</f>
-        <v>13593781639</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27">
-        <v>245441</v>
-      </c>
-      <c r="C27">
-        <v>171293</v>
-      </c>
-      <c r="D27">
-        <v>1775</v>
-      </c>
-      <c r="E27">
-        <v>1961</v>
-      </c>
-      <c r="F27">
-        <v>12</v>
-      </c>
-      <c r="G27">
-        <f>B27/C27</f>
-        <v>1.432872329867537</v>
-      </c>
-      <c r="H27">
-        <f>B27*C27</f>
+        <f t="shared" si="3"/>
         <v>42042325213</v>
       </c>
     </row>
@@ -8346,11 +8289,11 @@
         <v>6</v>
       </c>
       <c r="G28">
-        <f>B28/C28</f>
+        <f t="shared" si="2"/>
         <v>13.408239362695536</v>
       </c>
       <c r="H28">
-        <f>B28*C28</f>
+        <f t="shared" si="3"/>
         <v>323293673022</v>
       </c>
     </row>
@@ -8377,7 +8320,7 @@
         <v>1942</v>
       </c>
       <c r="E31">
-        <v>769</v>
+        <v>576</v>
       </c>
       <c r="F31">
         <v>10</v>
@@ -8405,7 +8348,7 @@
         <v>1197</v>
       </c>
       <c r="E32">
-        <v>1208</v>
+        <v>1012</v>
       </c>
       <c r="F32">
         <v>9</v>
@@ -8433,7 +8376,7 @@
         <v>4378</v>
       </c>
       <c r="E33">
-        <v>2937</v>
+        <v>2331</v>
       </c>
       <c r="F33">
         <v>18</v>
@@ -8461,7 +8404,7 @@
         <v>5180</v>
       </c>
       <c r="E34">
-        <v>2499</v>
+        <v>2174</v>
       </c>
       <c r="F34">
         <v>14</v>
@@ -8489,7 +8432,7 @@
         <v>6788</v>
       </c>
       <c r="E35">
-        <v>5122</v>
+        <v>4194</v>
       </c>
       <c r="F35">
         <v>27</v>
@@ -8517,7 +8460,7 @@
         <v>5625</v>
       </c>
       <c r="E36">
-        <v>8925</v>
+        <v>6975</v>
       </c>
       <c r="F36">
         <v>39</v>
@@ -8545,7 +8488,7 @@
         <v>8254</v>
       </c>
       <c r="E37">
-        <v>9529</v>
+        <v>8580</v>
       </c>
       <c r="F37">
         <v>30</v>
@@ -8573,7 +8516,7 @@
         <v>9071</v>
       </c>
       <c r="E38">
-        <v>4993</v>
+        <v>4816</v>
       </c>
       <c r="F38">
         <v>15</v>
@@ -8601,7 +8544,7 @@
         <v>10324</v>
       </c>
       <c r="E39">
-        <v>8084</v>
+        <v>7949</v>
       </c>
       <c r="F39">
         <v>22</v>
@@ -8629,7 +8572,7 @@
         <v>13004</v>
       </c>
       <c r="E40">
-        <v>9545</v>
+        <v>7047</v>
       </c>
       <c r="F40">
         <v>13</v>
@@ -8657,7 +8600,7 @@
         <v>13443</v>
       </c>
       <c r="E41">
-        <v>20560</v>
+        <v>13397</v>
       </c>
       <c r="F41">
         <v>26</v>
@@ -8685,7 +8628,7 @@
         <v>14668</v>
       </c>
       <c r="E42">
-        <v>25590</v>
+        <v>17386</v>
       </c>
       <c r="F42">
         <v>34</v>
@@ -8716,7 +8659,7 @@
         <v>16457</v>
       </c>
       <c r="E43">
-        <v>14258</v>
+        <v>13993</v>
       </c>
       <c r="F43">
         <v>21</v>
@@ -8744,7 +8687,7 @@
         <v>23257</v>
       </c>
       <c r="E44">
-        <v>36178</v>
+        <v>33196</v>
       </c>
       <c r="F44">
         <v>30</v>
@@ -8772,7 +8715,7 @@
         <v>30424</v>
       </c>
       <c r="E45">
-        <v>28835</v>
+        <v>26719</v>
       </c>
       <c r="F45">
         <v>19</v>
@@ -8800,7 +8743,7 @@
         <v>34094</v>
       </c>
       <c r="E46">
-        <v>86307</v>
+        <v>90204</v>
       </c>
       <c r="F46">
         <v>57</v>
@@ -8828,7 +8771,7 @@
         <v>40445</v>
       </c>
       <c r="E47">
-        <v>42771</v>
+        <v>46901</v>
       </c>
       <c r="F47">
         <v>25</v>
@@ -8856,7 +8799,7 @@
         <v>32410</v>
       </c>
       <c r="E48">
-        <v>75389</v>
+        <v>79104</v>
       </c>
       <c r="F48">
         <v>46</v>
@@ -8884,17 +8827,17 @@
         <v>5030</v>
       </c>
       <c r="E49">
-        <v>1743</v>
+        <v>1824</v>
       </c>
       <c r="F49">
         <v>6</v>
       </c>
       <c r="G49">
-        <f>B49/C49</f>
+        <f t="shared" ref="G49:G56" si="4">B49/C49</f>
         <v>1.4628840282591702</v>
       </c>
       <c r="H49">
-        <f>B49*C49</f>
+        <f t="shared" ref="H49:H56" si="5">B49*C49</f>
         <v>6724842185</v>
       </c>
     </row>
@@ -8912,17 +8855,17 @@
         <v>4935</v>
       </c>
       <c r="E50">
-        <v>2077</v>
+        <v>2073</v>
       </c>
       <c r="F50">
         <v>7</v>
       </c>
       <c r="G50">
-        <f>B50/C50</f>
+        <f t="shared" si="4"/>
         <v>1.4621880305921597</v>
       </c>
       <c r="H50">
-        <f>B50*C50</f>
+        <f t="shared" si="5"/>
         <v>6476472089</v>
       </c>
     </row>
@@ -8940,17 +8883,17 @@
         <v>4859</v>
       </c>
       <c r="E51">
-        <v>1831</v>
+        <v>1760</v>
       </c>
       <c r="F51">
         <v>6</v>
       </c>
       <c r="G51">
-        <f>B51/C51</f>
+        <f t="shared" si="4"/>
         <v>1.462985000073457</v>
       </c>
       <c r="H51">
-        <f>B51*C51</f>
+        <f t="shared" si="5"/>
         <v>6778179927</v>
       </c>
     </row>
@@ -8968,17 +8911,17 @@
         <v>5121</v>
       </c>
       <c r="E52">
-        <v>3513</v>
+        <v>3665</v>
       </c>
       <c r="F52">
         <v>8</v>
       </c>
       <c r="G52">
-        <f>B52/C52</f>
+        <f t="shared" si="4"/>
         <v>1.4633014038822159</v>
       </c>
       <c r="H52">
-        <f>B52*C52</f>
+        <f t="shared" si="5"/>
         <v>14242033110</v>
       </c>
     </row>
@@ -8996,17 +8939,17 @@
         <v>5681</v>
       </c>
       <c r="E53">
-        <v>3034</v>
+        <v>3259</v>
       </c>
       <c r="F53">
         <v>7</v>
       </c>
       <c r="G53">
-        <f>B53/C53</f>
+        <f t="shared" si="4"/>
         <v>1.4632678942829604</v>
       </c>
       <c r="H53">
-        <f>B53*C53</f>
+        <f t="shared" si="5"/>
         <v>14215734255</v>
       </c>
     </row>
@@ -9024,17 +8967,17 @@
         <v>5295</v>
       </c>
       <c r="E54">
-        <v>3781</v>
+        <v>3888</v>
       </c>
       <c r="F54">
         <v>9</v>
       </c>
       <c r="G54">
-        <f>B54/C54</f>
+        <f t="shared" si="4"/>
         <v>1.4618639234271138</v>
       </c>
       <c r="H54">
-        <f>B54*C54</f>
+        <f t="shared" si="5"/>
         <v>13593781639</v>
       </c>
     </row>
@@ -9052,17 +8995,17 @@
         <v>11518</v>
       </c>
       <c r="E55">
-        <v>9844</v>
+        <v>10155</v>
       </c>
       <c r="F55">
         <v>13</v>
       </c>
       <c r="G55">
-        <f>B55/C55</f>
+        <f t="shared" si="4"/>
         <v>1.432872329867537</v>
       </c>
       <c r="H55">
-        <f>B55*C55</f>
+        <f t="shared" si="5"/>
         <v>42042325213</v>
       </c>
     </row>
@@ -9086,11 +9029,11 @@
         <v>5</v>
       </c>
       <c r="G56">
-        <f>B56/C56</f>
+        <f t="shared" si="4"/>
         <v>13.408239362695536</v>
       </c>
       <c r="H56">
-        <f>B56*C56</f>
+        <f t="shared" si="5"/>
         <v>323293673022</v>
       </c>
     </row>
